--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/20/seed5/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.23</v>
+        <v>16.314</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>-8.23</v>
       </c>
       <c r="E4" t="n">
-        <v>16.5</v>
+        <v>16.545</v>
       </c>
     </row>
     <row r="5">
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.99</v>
+        <v>-7.084000000000001</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.144</v>
+        <v>-7.208</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.814</v>
+        <v>16.905</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.190000000000001</v>
+        <v>-8.297000000000001</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>17.048</v>
+        <v>17.054</v>
       </c>
     </row>
     <row r="27">
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.334</v>
+        <v>-8.514999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.6</v>
+        <v>-8.108000000000001</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -964,10 +964,10 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.414</v>
+        <v>-7.770000000000001</v>
       </c>
       <c r="E31" t="n">
-        <v>16.814</v>
+        <v>16.916</v>
       </c>
     </row>
     <row r="32">
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.862</v>
+        <v>-7.945000000000002</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.344</v>
+        <v>16.472</v>
       </c>
     </row>
     <row r="36">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.758000000000001</v>
+        <v>-7.723999999999999</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.554</v>
+        <v>16.643</v>
       </c>
     </row>
     <row r="38">
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.65</v>
+        <v>-7.828</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.686</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="40">
@@ -1120,7 +1120,7 @@
         <v>-7.23</v>
       </c>
       <c r="E40" t="n">
-        <v>16.762</v>
+        <v>16.595</v>
       </c>
     </row>
     <row r="41">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>17.098</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="46">
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.464000000000002</v>
+        <v>-8.176000000000002</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.582</v>
+        <v>16.768</v>
       </c>
     </row>
     <row r="53">
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.69</v>
+        <v>-8.229999999999999</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.018000000000001</v>
+        <v>-8.129000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.986</v>
+        <v>-8.17</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.643</v>
       </c>
     </row>
     <row r="58">
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.236</v>
+        <v>-7.509</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.029999999999999</v>
+        <v>-7.292</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.720000000000001</v>
+        <v>-7.595000000000001</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.114000000000001</v>
+        <v>-7.969000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1817,7 +1817,7 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.722</v>
+        <v>16.957</v>
       </c>
     </row>
     <row r="82">
@@ -1848,10 +1848,10 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-7.673999999999999</v>
+        <v>-7.852000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>16.404</v>
+        <v>16.661</v>
       </c>
     </row>
     <row r="84">
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.218</v>
+        <v>-7.885999999999998</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.656000000000001</v>
+        <v>-7.141000000000001</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2018,7 +2018,7 @@
         <v>-11.3</v>
       </c>
       <c r="D93" t="n">
-        <v>-7.636</v>
+        <v>-7.855</v>
       </c>
       <c r="E93" t="n">
         <v>18.32</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.85</v>
+        <v>-8.030000000000001</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.604</v>
+        <v>16.684</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.634</v>
+        <v>16.555</v>
       </c>
     </row>
   </sheetData>
